--- a/pro.xlsx
+++ b/pro.xlsx
@@ -461,170 +461,170 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45688</v>
+        <v>45169</v>
       </c>
       <c r="B2" t="n">
-        <v>20.57250745281045</v>
+        <v>12.51017872401025</v>
       </c>
       <c r="C2" t="n">
-        <v>8.472058926270989</v>
+        <v>3.294779675262166</v>
       </c>
       <c r="D2" t="n">
-        <v>32.67295597934991</v>
+        <v>21.72557777275834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45716</v>
+        <v>45199</v>
       </c>
       <c r="B3" t="n">
-        <v>11.75772569858054</v>
+        <v>10.79255207031157</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8285131347173582</v>
+        <v>0.979170273983863</v>
       </c>
       <c r="D3" t="n">
-        <v>24.34396453187843</v>
+        <v>20.60593386663928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45747</v>
+        <v>45230</v>
       </c>
       <c r="B4" t="n">
-        <v>13.77106124733811</v>
+        <v>15.34058423876811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8681377975368889</v>
+        <v>5.12983009355124</v>
       </c>
       <c r="D4" t="n">
-        <v>26.67398469713932</v>
+        <v>25.55133838398499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45777</v>
+        <v>45260</v>
       </c>
       <c r="B5" t="n">
-        <v>13.77202139497327</v>
+        <v>13.25061818323386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5695582028314714</v>
+        <v>1.473221932413665</v>
       </c>
       <c r="D5" t="n">
-        <v>26.97448458711506</v>
+        <v>25.02801443405406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45808</v>
+        <v>45291</v>
       </c>
       <c r="B6" t="n">
-        <v>16.77209052474798</v>
+        <v>12.47507499286793</v>
       </c>
       <c r="C6" t="n">
-        <v>3.277402106521761</v>
+        <v>-0.02605860907717528</v>
       </c>
       <c r="D6" t="n">
-        <v>30.26677894297421</v>
+        <v>24.97620859481304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45838</v>
+        <v>45322</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7720955020302</v>
+        <v>13.93197389921434</v>
       </c>
       <c r="C7" t="n">
-        <v>8.99142425294125</v>
+        <v>0.8522100009818008</v>
       </c>
       <c r="D7" t="n">
-        <v>36.55276675111916</v>
+        <v>27.01173779744688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45869</v>
+        <v>45351</v>
       </c>
       <c r="B8" t="n">
-        <v>22.77209586039009</v>
+        <v>13.36654768704283</v>
       </c>
       <c r="C8" t="n">
-        <v>8.711260490597164</v>
+        <v>-0.5801282576075621</v>
       </c>
       <c r="D8" t="n">
-        <v>36.83293123018302</v>
+        <v>27.31322363169323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45900</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="n">
-        <v>15.77209588619168</v>
+        <v>13.05214054392956</v>
       </c>
       <c r="C9" t="n">
-        <v>1.436570929068104</v>
+        <v>-1.563129646929859</v>
       </c>
       <c r="D9" t="n">
-        <v>30.10762084331526</v>
+        <v>27.66741073478898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45930</v>
+        <v>45412</v>
       </c>
       <c r="B10" t="n">
-        <v>17.77209588804938</v>
+        <v>13.5125994319244</v>
       </c>
       <c r="C10" t="n">
-        <v>3.167046767546701</v>
+        <v>-1.696817627713795</v>
       </c>
       <c r="D10" t="n">
-        <v>32.37714500855206</v>
+        <v>28.72201649156259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45961</v>
+        <v>45443</v>
       </c>
       <c r="B11" t="n">
-        <v>29.77209588818313</v>
+        <v>13.36589701785178</v>
       </c>
       <c r="C11" t="n">
-        <v>14.90240712905176</v>
+        <v>-2.503374130186554</v>
       </c>
       <c r="D11" t="n">
-        <v>44.64178464731451</v>
+        <v>29.23516816589011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45991</v>
+        <v>45473</v>
       </c>
       <c r="B12" t="n">
-        <v>36.77209588819276</v>
+        <v>13.24623900387601</v>
       </c>
       <c r="C12" t="n">
-        <v>21.64239570041404</v>
+        <v>-3.221823460170695</v>
       </c>
       <c r="D12" t="n">
-        <v>51.90179607597148</v>
+        <v>29.71430146792272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46022</v>
+        <v>45504</v>
       </c>
       <c r="B13" t="n">
-        <v>18.77209588819346</v>
+        <v>13.38985044477368</v>
       </c>
       <c r="C13" t="n">
-        <v>3.386777830040613</v>
+        <v>-3.639042110012506</v>
       </c>
       <c r="D13" t="n">
-        <v>34.1574139463463</v>
+        <v>30.41874299955987</v>
       </c>
     </row>
   </sheetData>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -464,13 +464,13 @@
         <v>45169</v>
       </c>
       <c r="B2" t="n">
-        <v>12.51017872401025</v>
+        <v>14.63944793369967</v>
       </c>
       <c r="C2" t="n">
-        <v>3.294779675262166</v>
+        <v>5.319653850206224</v>
       </c>
       <c r="D2" t="n">
-        <v>21.72557777275834</v>
+        <v>23.95924201719311</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         <v>45199</v>
       </c>
       <c r="B3" t="n">
-        <v>10.79255207031157</v>
+        <v>4.876624979148925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.979170273983863</v>
+        <v>-4.482787132950969</v>
       </c>
       <c r="D3" t="n">
-        <v>20.60593386663928</v>
+        <v>14.23603709124882</v>
       </c>
     </row>
     <row r="4">
@@ -492,13 +492,13 @@
         <v>45230</v>
       </c>
       <c r="B4" t="n">
-        <v>15.34058423876811</v>
+        <v>4.765070629111621</v>
       </c>
       <c r="C4" t="n">
-        <v>5.12983009355124</v>
+        <v>-4.633781729445156</v>
       </c>
       <c r="D4" t="n">
-        <v>25.55133838398499</v>
+        <v>14.1639229876684</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>45260</v>
       </c>
       <c r="B5" t="n">
-        <v>13.25061818323386</v>
+        <v>10.38928901604246</v>
       </c>
       <c r="C5" t="n">
-        <v>1.473221932413665</v>
+        <v>0.9511612216995111</v>
       </c>
       <c r="D5" t="n">
-        <v>25.02801443405406</v>
+        <v>19.82741681038541</v>
       </c>
     </row>
     <row r="6">
@@ -520,13 +520,13 @@
         <v>45291</v>
       </c>
       <c r="B6" t="n">
-        <v>12.47507499286793</v>
+        <v>7.306823407486863</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02605860907717528</v>
+        <v>-2.170441823977793</v>
       </c>
       <c r="D6" t="n">
-        <v>24.97620859481304</v>
+        <v>16.78408863895152</v>
       </c>
     </row>
     <row r="7">
@@ -534,13 +534,13 @@
         <v>45322</v>
       </c>
       <c r="B7" t="n">
-        <v>13.93197389921434</v>
+        <v>7.004958580666139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8522100009818008</v>
+        <v>-2.328284271838893</v>
       </c>
       <c r="D7" t="n">
-        <v>27.01173779744688</v>
+        <v>16.33820143317117</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>45351</v>
       </c>
       <c r="B8" t="n">
-        <v>13.36654768704283</v>
+        <v>6.736650479657853</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5801282576075621</v>
+        <v>-2.631733603124361</v>
       </c>
       <c r="D8" t="n">
-        <v>27.31322363169323</v>
+        <v>16.10503456244007</v>
       </c>
     </row>
     <row r="9">
@@ -562,13 +562,13 @@
         <v>45382</v>
       </c>
       <c r="B9" t="n">
-        <v>13.05214054392956</v>
+        <v>13.74463037117899</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.563129646929859</v>
+        <v>4.341230291280691</v>
       </c>
       <c r="D9" t="n">
-        <v>27.66741073478898</v>
+        <v>23.14803045107729</v>
       </c>
     </row>
     <row r="10">
@@ -576,13 +576,13 @@
         <v>45412</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5125994319244</v>
+        <v>11.82888408176243</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.696817627713795</v>
+        <v>2.390581254517485</v>
       </c>
       <c r="D10" t="n">
-        <v>28.72201649156259</v>
+        <v>21.26718690900737</v>
       </c>
     </row>
     <row r="11">
@@ -590,13 +590,13 @@
         <v>45443</v>
       </c>
       <c r="B11" t="n">
-        <v>13.36589701785178</v>
+        <v>9.52356135753141</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.503374130186554</v>
+        <v>0.05048437822951612</v>
       </c>
       <c r="D11" t="n">
-        <v>29.23516816589011</v>
+        <v>18.9966383368333</v>
       </c>
     </row>
     <row r="12">
@@ -604,13 +604,13 @@
         <v>45473</v>
       </c>
       <c r="B12" t="n">
-        <v>13.24623900387601</v>
+        <v>6.76404546619744</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.221823460170695</v>
+        <v>-2.743678482071453</v>
       </c>
       <c r="D12" t="n">
-        <v>29.71430146792272</v>
+        <v>16.27176941446633</v>
       </c>
     </row>
     <row r="13">
@@ -618,13 +618,13 @@
         <v>45504</v>
       </c>
       <c r="B13" t="n">
-        <v>13.38985044477368</v>
+        <v>3.552391521388785</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.639042110012506</v>
+        <v>-5.98986278100033</v>
       </c>
       <c r="D13" t="n">
-        <v>30.41874299955987</v>
+        <v>13.0946458237779</v>
       </c>
     </row>
   </sheetData>
